--- a/Documentation/Aulas Projeto.xlsx
+++ b/Documentation/Aulas Projeto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfernandes.PSCGROUP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\Projeto_Final\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1062BE-9F99-404D-960F-D14953F7963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AA55E-D2B2-4187-B08E-0402DCF89487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
   </bookViews>
@@ -179,9 +179,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,9 +201,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,6 +208,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +533,7 @@
   <dimension ref="B8:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,586 +556,588 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="11" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="11" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="L8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="Q8" s="11" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>44860</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="G10" s="7">
+      <c r="E10" s="12"/>
+      <c r="G10" s="6">
         <v>44837</v>
       </c>
-      <c r="H10" s="8">
-        <v>3</v>
-      </c>
-      <c r="I10" s="12">
-        <v>3</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="L10" s="3">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="L10" s="2">
         <v>44868</v>
       </c>
-      <c r="M10" s="4">
-        <v>3</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="Q10" s="3">
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="Q10" s="2">
         <v>44897</v>
       </c>
-      <c r="R10" s="4">
-        <v>3</v>
-      </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
+      <c r="R10" s="3">
+        <v>3</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="6">
         <v>44844</v>
       </c>
-      <c r="H11" s="8">
-        <v>3</v>
-      </c>
-      <c r="I11" s="8">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="L11" s="3">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="L11" s="2">
         <v>44869</v>
       </c>
-      <c r="M11" s="4">
-        <v>3</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="Q11" s="3">
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="2">
         <v>44898</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>4</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="G12" s="3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="6">
         <v>44851</v>
       </c>
-      <c r="H12" s="4">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="3">
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="L12" s="2">
         <v>44870</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>4</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="Q12" s="2">
         <v>44900</v>
       </c>
-      <c r="R12" s="4">
-        <v>3</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="R12" s="3">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="G13" s="2">
         <v>44854</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="L13" s="3">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="2">
         <v>44872</v>
       </c>
-      <c r="M13" s="4">
-        <v>3</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="3">
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="Q13" s="2">
         <v>44902</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>4</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="G14" s="3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="2">
         <v>44856</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="2">
         <v>44873</v>
       </c>
-      <c r="M14" s="4">
-        <v>3</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14"/>
-      <c r="G15" s="3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="2">
         <v>44859</v>
       </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="L15" s="3">
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="2">
         <v>44876</v>
       </c>
-      <c r="M15" s="4">
-        <v>3</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
-      <c r="G16" s="3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="2">
         <v>44861</v>
       </c>
-      <c r="H16" s="4">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="3">
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="2">
         <v>44879</v>
       </c>
-      <c r="M16" s="4">
-        <v>3</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
-      <c r="G17" s="3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="2">
         <v>44862</v>
       </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="3">
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="2">
         <v>44880</v>
       </c>
-      <c r="M17" s="4">
-        <v>3</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="14"/>
-      <c r="G18" s="3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="2">
         <v>44863</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>4</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="3">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="2">
         <v>44883</v>
       </c>
-      <c r="M18" s="4">
-        <v>3</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="14"/>
-      <c r="G19" s="3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="2">
         <v>44865</v>
       </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="3">
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
         <v>44884</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>4</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="14"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="2">
         <v>44886</v>
       </c>
-      <c r="M20" s="4">
-        <v>3</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="14"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="L21" s="3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="2">
         <v>44887</v>
       </c>
-      <c r="M21" s="4">
-        <v>3</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="14"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="L22" s="3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="2">
         <v>44890</v>
       </c>
-      <c r="M22" s="4">
-        <v>3</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="14"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="L23" s="3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="12"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="2">
         <v>44893</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>2</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="L24" s="3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="2">
         <v>44894</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>2</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="14"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="L25" s="3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="2">
         <v>44895</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>6</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
         <f>SUM(C10:C25)</f>
         <v>2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f>SUM(D10:D25)</f>
         <v>2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f>C26-D26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4">
         <f>SUM(H15:H20)</f>
         <v>16</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f>SUM(I10:I25)</f>
-        <v>6</v>
-      </c>
-      <c r="J26" s="5">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4">
         <f>H26-I26</f>
-        <v>10</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="5">
+        <v>7</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="4">
         <f>SUM(M10:M25)</f>
         <v>51</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <f>SUM(N10:N25)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <f>M26-N26</f>
         <v>51</v>
       </c>
-      <c r="Q26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="5">
+      <c r="Q26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="4">
         <f>SUM(R10:R25)</f>
         <v>14</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="4">
         <f>SUM(S10:S25)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="4">
         <f>R26-S26</f>
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1">
         <f>SUM(D26,I26,N26,S26)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1">
         <f>SUM(E26,J26,O26,T26)</f>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Documentation/Aulas Projeto.xlsx
+++ b/Documentation/Aulas Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\Projeto_Final\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AA55E-D2B2-4187-B08E-0402DCF89487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D2087-A795-4781-B4BE-A4607D9D03C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="B8:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,13 +738,15 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="12"/>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>44854</v>
       </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" s="2">
         <v>44872</v>
@@ -768,13 +770,15 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="12"/>
-      <c r="G14" s="2">
+      <c r="G14" s="6">
         <v>44856</v>
       </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3"/>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" s="2">
         <v>44873</v>
@@ -794,13 +798,15 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="12"/>
-      <c r="G15" s="2">
+      <c r="G15" s="6">
         <v>44859</v>
       </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3"/>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="L15" s="2">
         <v>44876</v>
@@ -820,13 +826,15 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="12"/>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <v>44861</v>
       </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3"/>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="L16" s="2">
         <v>44879</v>
@@ -846,13 +854,15 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="12"/>
-      <c r="G17" s="2">
+      <c r="G17" s="6">
         <v>44862</v>
       </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3"/>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="L17" s="2">
         <v>44880</v>
@@ -872,13 +882,15 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="12"/>
-      <c r="G18" s="2">
+      <c r="G18" s="6">
         <v>44863</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="L18" s="2">
         <v>44883</v>
@@ -1076,11 +1088,11 @@
       </c>
       <c r="I26" s="4">
         <f>SUM(I10:I25)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J26" s="4">
         <f>H26-I26</f>
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>3</v>
@@ -1119,7 +1131,7 @@
       </c>
       <c r="C29" s="1">
         <f>SUM(D26,I26,N26,S26)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -1128,7 +1140,7 @@
       </c>
       <c r="C30" s="1">
         <f>SUM(E26,J26,O26,T26)</f>
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">

--- a/Documentation/Aulas Projeto.xlsx
+++ b/Documentation/Aulas Projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\Projeto_Final\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projetos\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D2087-A795-4781-B4BE-A4607D9D03C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471F3D49-F6D3-4C91-9E91-37A1ADFC2CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
+    <workbookView xWindow="9750" yWindow="-16200" windowWidth="25965" windowHeight="16305" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="B8:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,13 +652,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="12"/>
-      <c r="L10" s="2">
+      <c r="L10" s="6">
         <v>44868</v>
       </c>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
-      <c r="N10" s="11"/>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="10">
+        <v>3</v>
+      </c>
       <c r="O10" s="12"/>
       <c r="Q10" s="2">
         <v>44897</v>
@@ -684,13 +686,15 @@
         <v>3</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="L11" s="2">
+      <c r="L11" s="6">
         <v>44869</v>
       </c>
-      <c r="M11" s="3">
-        <v>3</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="Q11" s="2">
         <v>44898</v>
@@ -716,13 +720,15 @@
         <v>3</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="L12" s="2">
+      <c r="L12" s="6">
         <v>44870</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="7">
         <v>4</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="7">
+        <v>4</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="Q12" s="2">
         <v>44900</v>
@@ -748,13 +754,15 @@
         <v>2</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="L13" s="2">
+      <c r="L13" s="6">
         <v>44872</v>
       </c>
-      <c r="M13" s="3">
-        <v>3</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="Q13" s="2">
         <v>44902</v>
@@ -910,13 +918,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="12"/>
-      <c r="G19" s="2">
+      <c r="G19" s="6">
         <v>44865</v>
       </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3"/>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="3"/>
       <c r="L19" s="2">
         <v>44884</v>
@@ -1103,11 +1111,11 @@
       </c>
       <c r="N26" s="4">
         <f>SUM(N10:N25)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O26" s="4">
         <f>M26-N26</f>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>3</v>
@@ -1131,7 +1139,7 @@
       </c>
       <c r="C29" s="1">
         <f>SUM(D26,I26,N26,S26)</f>
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -1140,7 +1148,7 @@
       </c>
       <c r="C30" s="1">
         <f>SUM(E26,J26,O26,T26)</f>
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">

--- a/Documentation/Aulas Projeto.xlsx
+++ b/Documentation/Aulas Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projetos\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471F3D49-F6D3-4C91-9E91-37A1ADFC2CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7066F-BF18-41C1-B00C-6D416D2114BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="-16200" windowWidth="25965" windowHeight="16305" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
+    <workbookView xWindow="9870" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2CB00-66D1-4F03-981A-75163DD66918}">
-  <dimension ref="B8:T32"/>
+  <dimension ref="B8:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
     <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -631,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>44860</v>
       </c>
@@ -670,8 +670,11 @@
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -704,8 +707,11 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -738,8 +744,11 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -772,8 +781,11 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -788,20 +800,25 @@
         <v>2</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="L14" s="2">
+      <c r="L14" s="6">
         <v>44873</v>
       </c>
-      <c r="M14" s="3">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3"/>
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -816,20 +833,25 @@
         <v>3</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="L15" s="2">
+      <c r="L15" s="6">
         <v>44876</v>
       </c>
-      <c r="M15" s="3">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3"/>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -844,20 +866,25 @@
         <v>3</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="L16" s="2">
+      <c r="L16" s="6">
         <v>44879</v>
       </c>
-      <c r="M16" s="3">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3"/>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -872,20 +899,25 @@
         <v>3</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="L17" s="2">
+      <c r="L17" s="6">
         <v>44880</v>
       </c>
-      <c r="M17" s="3">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -900,20 +932,22 @@
         <v>4</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="L18" s="2">
+      <c r="L18" s="6">
         <v>44883</v>
       </c>
-      <c r="M18" s="3">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -926,20 +960,22 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="3"/>
-      <c r="L19" s="2">
+      <c r="L19" s="6">
         <v>44884</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="7">
         <v>4</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="7">
+        <v>4</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -948,20 +984,22 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" s="2">
+      <c r="L20" s="6">
         <v>44886</v>
       </c>
-      <c r="M20" s="3">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -970,20 +1008,22 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" s="2">
+      <c r="L21" s="6">
         <v>44887</v>
       </c>
-      <c r="M21" s="3">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
+      <c r="M21" s="7">
+        <v>3</v>
+      </c>
+      <c r="N21" s="7">
+        <v>3</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1005,7 +1045,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1027,7 +1067,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1049,7 +1089,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1071,7 +1111,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1111,11 +1151,11 @@
       </c>
       <c r="N26" s="4">
         <f>SUM(N10:N25)</f>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O26" s="4">
         <f>M26-N26</f>
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>3</v>
@@ -1133,29 +1173,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1">
         <f>SUM(D26,I26,N26,S26)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1">
         <f>SUM(E26,J26,O26,T26)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>

--- a/Documentation/Aulas Projeto.xlsx
+++ b/Documentation/Aulas Projeto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projetos\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\Projeto_Final\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7066F-BF18-41C1-B00C-6D416D2114BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92904B18-1615-44E4-8E38-B549974D60AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C958B51-1073-4D1E-BDA4-5358410FDF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -202,9 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +530,7 @@
   <dimension ref="B8:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,30 +553,30 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="13" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="L8" s="13" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="L8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="Q8" s="13" t="s">
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="Q8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -641,7 +638,7 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="6">
         <v>44837</v>
       </c>
@@ -651,7 +648,7 @@
       <c r="I10" s="10">
         <v>3</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="11"/>
       <c r="L10" s="6">
         <v>44868</v>
       </c>
@@ -661,15 +658,17 @@
       <c r="N10" s="10">
         <v>3</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="Q10" s="2">
+      <c r="O10" s="11"/>
+      <c r="Q10" s="6">
         <v>44897</v>
       </c>
-      <c r="R10" s="3">
-        <v>3</v>
-      </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="12"/>
+      <c r="R10" s="7">
+        <v>3</v>
+      </c>
+      <c r="S10" s="10">
+        <v>3</v>
+      </c>
+      <c r="T10" s="11"/>
       <c r="V10">
         <v>4</v>
       </c>
@@ -678,7 +677,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
       <c r="G11" s="6">
         <v>44844</v>
       </c>
@@ -699,13 +698,15 @@
         <v>3</v>
       </c>
       <c r="O11" s="3"/>
-      <c r="Q11" s="2">
+      <c r="Q11" s="6">
         <v>44898</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="7">
         <v>4</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="7">
+        <v>4</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="V11">
         <v>2</v>
@@ -715,7 +716,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="G12" s="6">
         <v>44851</v>
       </c>
@@ -752,7 +753,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
       <c r="G13" s="6">
         <v>44854</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="6">
         <v>44856</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="6">
         <v>44859</v>
       </c>
@@ -855,7 +856,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="6">
         <v>44861</v>
       </c>
@@ -888,7 +889,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="G17" s="6">
         <v>44862</v>
       </c>
@@ -921,7 +922,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="G18" s="6">
         <v>44863</v>
       </c>
@@ -951,7 +952,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="G19" s="6">
         <v>44865</v>
       </c>
@@ -979,7 +980,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1003,7 +1004,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1027,18 +1028,20 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" s="2">
+      <c r="L22" s="6">
         <v>44890</v>
       </c>
-      <c r="M22" s="3">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3"/>
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="3"/>
@@ -1049,18 +1052,20 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="11"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" s="2">
+      <c r="L23" s="6">
         <v>44893</v>
       </c>
-      <c r="M23" s="3">
-        <v>2</v>
-      </c>
-      <c r="N23" s="3"/>
+      <c r="M23" s="7">
+        <v>2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="3"/>
@@ -1071,18 +1076,20 @@
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="11"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="L24" s="2">
+      <c r="L24" s="6">
         <v>44894</v>
       </c>
-      <c r="M24" s="3">
-        <v>2</v>
-      </c>
-      <c r="N24" s="3"/>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="3"/>
@@ -1093,18 +1100,20 @@
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="11"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="L25" s="2">
+      <c r="L25" s="6">
         <v>44895</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="7">
         <v>6</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="7">
+        <v>6</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="3"/>
@@ -1151,11 +1160,11 @@
       </c>
       <c r="N26" s="4">
         <f>SUM(N10:N25)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O26" s="4">
         <f>M26-N26</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>3</v>
@@ -1166,11 +1175,11 @@
       </c>
       <c r="S26" s="4">
         <f>SUM(S10:S25)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T26" s="4">
         <f>R26-S26</f>
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
@@ -1179,7 +1188,7 @@
       </c>
       <c r="C29" s="1">
         <f>SUM(D26,I26,N26,S26)</f>
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
@@ -1188,7 +1197,7 @@
       </c>
       <c r="C30" s="1">
         <f>SUM(E26,J26,O26,T26)</f>
-        <v>17</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
